--- a/research/physics.xlsx
+++ b/research/physics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>x_{1i}+x_{2i}=x_{1f}+x_{2f}</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>just swap y velocties</t>
+  </si>
+  <si>
+    <t>elastic collision</t>
+  </si>
+  <si>
+    <t>y_{1i}+y_{2i}=y_{1f}+y_{2f} means swap x₁ and x₂ values, too?</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +557,9 @@
         <f>Z1</f>
         <v>2</v>
       </c>
+      <c r="AC1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1305,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="AC8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1640,6 +1649,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="AC11" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1966,9 +1978,6 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AC14" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,7 +3023,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
